--- a/output/fit_clients/fit_round_198.xlsx
+++ b/output/fit_clients/fit_round_198.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2330338740.175336</v>
+        <v>2206336508.382469</v>
       </c>
       <c r="F2" t="n">
-        <v>0.110767559629988</v>
+        <v>0.1011878849868792</v>
       </c>
       <c r="G2" t="n">
-        <v>0.043295643007052</v>
+        <v>0.03056621020696454</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1165169410.108013</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2162129010.393746</v>
+        <v>2128709230.408621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1726979351488366</v>
+        <v>0.1275199595302546</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03696449828449734</v>
+        <v>0.03634077337965227</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1081064570.341891</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4192090561.296173</v>
+        <v>4828022993.798893</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1144241320810994</v>
+        <v>0.1607039423229332</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03691593346159215</v>
+        <v>0.02716672987245619</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2096045308.408395</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3262235683.290224</v>
+        <v>3209922256.472096</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06918657883102833</v>
+        <v>0.1101036329666905</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04344071813673674</v>
+        <v>0.04586041672369342</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1631117894.098233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2430174437.409807</v>
+        <v>2349970491.36797</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1215654822806848</v>
+        <v>0.1382422986435757</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04378390588507884</v>
+        <v>0.04155274997856115</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1215087201.719022</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2323202404.655354</v>
+        <v>2251013249.389983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07693957447025877</v>
+        <v>0.06441817542577988</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04056182198654547</v>
+        <v>0.03382366485027811</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>61</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1161601232.336679</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2901480096.557294</v>
+        <v>3778568657.92527</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2110943448541796</v>
+        <v>0.2146459733719664</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02237780051350649</v>
+        <v>0.02925670077326824</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>63</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1450740095.70389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2132943698.655479</v>
+        <v>2174897577.215472</v>
       </c>
       <c r="F9" t="n">
-        <v>0.187861693619697</v>
+        <v>0.1980728451280218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03535345410222089</v>
+        <v>0.03586686618308038</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1066471857.477294</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5844078203.807826</v>
+        <v>5258346201.841476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1612210350321344</v>
+        <v>0.184035919224775</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04498000803136108</v>
+        <v>0.05003329365197537</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>83</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2922039266.530552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3922750147.688033</v>
+        <v>2584938719.604274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1603417503072721</v>
+        <v>0.1769740941440345</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04291510819394139</v>
+        <v>0.04017725795085089</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>82</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1961375081.119553</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3323617219.221105</v>
+        <v>2872947109.084814</v>
       </c>
       <c r="F12" t="n">
-        <v>0.144224613432487</v>
+        <v>0.1211963967784351</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03667069829730964</v>
+        <v>0.04710620967833643</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>70</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1661808657.253373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3313614717.120512</v>
+        <v>3530393895.318355</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1013299629004937</v>
+        <v>0.07472283730887305</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02084430350964184</v>
+        <v>0.02391518142865891</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>67</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1656807448.338333</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3732599536.104545</v>
+        <v>2631090671.230774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1805236312773993</v>
+        <v>0.1217231926132641</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04311039974500095</v>
+        <v>0.04218430089976331</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1866299749.428997</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1134672773.432942</v>
+        <v>1805546450.631119</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08360277282727568</v>
+        <v>0.07687455137819044</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03953984848425541</v>
+        <v>0.03297265399165279</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>567336389.3648154</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2603459781.305738</v>
+        <v>2441528303.402445</v>
       </c>
       <c r="F16" t="n">
-        <v>0.100266381304351</v>
+        <v>0.07368756747358857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04931861261209508</v>
+        <v>0.04106433405478355</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>30</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1301729912.200151</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4549005765.144573</v>
+        <v>3361822110.778121</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1128019782786469</v>
+        <v>0.1149825613945914</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03816315259896204</v>
+        <v>0.03984630303076587</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>58</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2274502890.006978</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3452528571.298028</v>
+        <v>3665978006.814631</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1811227543230658</v>
+        <v>0.1713149989356622</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02937923657649049</v>
+        <v>0.02790707512553581</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>65</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1726264283.127778</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1221417681.51693</v>
+        <v>916328227.7587987</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1478131730214037</v>
+        <v>0.1882026893807551</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01689953264747488</v>
+        <v>0.02417754650097718</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>610708923.8966666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1705763375.191577</v>
+        <v>2284212642.21184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1263016508618772</v>
+        <v>0.1168346261410411</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02393004488739922</v>
+        <v>0.0301430039784866</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>852881745.2622384</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2403436893.738138</v>
+        <v>2217538174.31908</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09643397506928253</v>
+        <v>0.08386855106524224</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03120973369793912</v>
+        <v>0.03617535500757123</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1201718444.210913</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3628819926.785606</v>
+        <v>3551590526.173587</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1030862546182493</v>
+        <v>0.1451164587483173</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04980073550995629</v>
+        <v>0.05028170330392112</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>54</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1814409987.249279</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>948459828.75657</v>
+        <v>1166215972.322392</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1501762093320761</v>
+        <v>0.1354004299279374</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03775644464730154</v>
+        <v>0.03424850111245441</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>474229993.2339214</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2884076719.122906</v>
+        <v>2745925374.70986</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1423765421665663</v>
+        <v>0.110614354995427</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0252019011278732</v>
+        <v>0.02740030839807848</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>58</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1442038402.583724</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1335660800.623634</v>
+        <v>1000897950.209732</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09118749334301608</v>
+        <v>0.09478223997426788</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02835180792642697</v>
+        <v>0.02806364886616571</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>667830387.0526886</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1422799171.380751</v>
+        <v>944402572.7767196</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08891827269929814</v>
+        <v>0.09790379108946973</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02717457124900045</v>
+        <v>0.02373969794018579</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>711399661.2092859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4237976354.06359</v>
+        <v>3519601413.716203</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1042203740471746</v>
+        <v>0.1231796561927267</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02029682151166838</v>
+        <v>0.01673374404600648</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>47</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2118988175.342327</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2574836885.740659</v>
+        <v>3146093550.489707</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09234229228880224</v>
+        <v>0.1245230046047513</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0307883527111528</v>
+        <v>0.04428790303137552</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>64</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1287418417.156187</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4854804213.76685</v>
+        <v>4265786435.566975</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1103478336092034</v>
+        <v>0.1134618993035301</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04272930368059807</v>
+        <v>0.04503431247961018</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2427402064.452779</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1573204579.355527</v>
+        <v>1452978807.539177</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09189198413916547</v>
+        <v>0.09278720662257496</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03022067395435711</v>
+        <v>0.03358446551534953</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>786602278.4960914</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1028860276.035715</v>
+        <v>1150101293.775962</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09526463664360096</v>
+        <v>0.09313607640248626</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03994170938112739</v>
+        <v>0.03355702776695844</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>514430129.7368157</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1569935417.808336</v>
+        <v>1494080679.604456</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1116467788184309</v>
+        <v>0.09426039096568883</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02424120245164715</v>
+        <v>0.03095542471579192</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>784967791.7286049</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2438879546.835144</v>
+        <v>3100120418.130033</v>
       </c>
       <c r="F33" t="n">
-        <v>0.179322927400176</v>
+        <v>0.1632120833522511</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04801122547553328</v>
+        <v>0.05865476270266551</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>59</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1219439816.804163</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1060210701.267383</v>
+        <v>1043637938.20261</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1057608016737954</v>
+        <v>0.08151968986454286</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02411647845965009</v>
+        <v>0.02125583272349213</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>530105378.5971661</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1166760596.845131</v>
+        <v>982293554.0509914</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07570294496183942</v>
+        <v>0.09994904229411168</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02875086288048991</v>
+        <v>0.02886300093247463</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>583380280.4067649</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2799664555.804687</v>
+        <v>2269791041.188032</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1796998912402624</v>
+        <v>0.1251002793110144</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01787623072069922</v>
+        <v>0.01866328659495887</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>50</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1399832275.863728</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1978706923.367039</v>
+        <v>1997560772.12697</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07956762829807475</v>
+        <v>0.08449935222488369</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03592593243624449</v>
+        <v>0.03594241808878104</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>53</v>
-      </c>
-      <c r="J37" t="n">
-        <v>989353486.0212032</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1916525627.763413</v>
+        <v>1893141224.757949</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1186790533675693</v>
+        <v>0.08009090642342806</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03562940824729609</v>
+        <v>0.03076347914193913</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>958262804.2787328</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1968684588.930986</v>
+        <v>1722619994.9508</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1341830245275509</v>
+        <v>0.1600014941868853</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02745156259449926</v>
+        <v>0.02552795405909015</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>984342293.761052</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1800854229.099735</v>
+        <v>1573035703.797168</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1208535280257226</v>
+        <v>0.1052902402563948</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03838675953015802</v>
+        <v>0.05408309561893808</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>900427005.4123727</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2359716288.076602</v>
+        <v>2783429489.614662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1343032767661626</v>
+        <v>0.1197204631613588</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03458012896661198</v>
+        <v>0.02917370100357857</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>50</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1179858183.029303</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2652693898.061717</v>
+        <v>3586897626.502723</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1068136717162916</v>
+        <v>0.08148458565128962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04107457366801578</v>
+        <v>0.03935216909174041</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1326346885.556149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2166176046.429427</v>
+        <v>1908855895.995907</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1512463959983596</v>
+        <v>0.2041457085328474</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01588750193674232</v>
+        <v>0.01996811088920166</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>68</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1083088105.422744</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2173607134.447414</v>
+        <v>1716306842.820464</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07197831815785612</v>
+        <v>0.07373838158192697</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03162260446471763</v>
+        <v>0.02844016728764897</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1086803708.182338</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2393669866.24091</v>
+        <v>2129228802.930055</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1522550899616239</v>
+        <v>0.1931865587043328</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04576384731179454</v>
+        <v>0.05620677874022193</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1196834963.641974</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3692627923.368375</v>
+        <v>5480034752.798732</v>
       </c>
       <c r="F46" t="n">
-        <v>0.124404432259819</v>
+        <v>0.1582311753951361</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0576410982686999</v>
+        <v>0.04576066368491192</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>70</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1846313913.590185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4928701261.823774</v>
+        <v>3526801937.159066</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1229613085199371</v>
+        <v>0.1892327354711179</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04532402362153042</v>
+        <v>0.05007758721650043</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>53</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2464350682.65148</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2890085960.823314</v>
+        <v>3163855990.702484</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0757848945624774</v>
+        <v>0.08336695392847136</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03633188882474908</v>
+        <v>0.02930228672714934</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>65</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1445043079.247308</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1462941250.824954</v>
+        <v>1226222761.8369</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1184848506039544</v>
+        <v>0.125570602933383</v>
       </c>
       <c r="G49" t="n">
-        <v>0.039911976827304</v>
+        <v>0.03533576272608282</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>731470663.1670854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3104285342.474329</v>
+        <v>2644979208.273215</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1256599699921136</v>
+        <v>0.1501215639948303</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04094070993639293</v>
+        <v>0.0517810740724805</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>68</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1552142723.629654</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>994625832.8530816</v>
+        <v>1188670368.809094</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1549670716900629</v>
+        <v>0.1667518444436842</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05304144471623572</v>
+        <v>0.0497130305209606</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>497313001.2407215</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4633917513.290296</v>
+        <v>3523783877.917822</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1238402139713287</v>
+        <v>0.09980634277910362</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04927142706464134</v>
+        <v>0.04352387030947574</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>82</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2316958775.793914</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2468475940.273151</v>
+        <v>3064440993.64723</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1789162175427168</v>
+        <v>0.1880133275406756</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03538305230793386</v>
+        <v>0.02747654601575832</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>56</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1234238039.266477</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3969886379.732703</v>
+        <v>3098614410.500063</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1205589382671337</v>
+        <v>0.1531899792964863</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04740677377285785</v>
+        <v>0.04360269752663935</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>65</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1984943251.565692</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3503351897.964869</v>
+        <v>3578440647.570484</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1594744219087203</v>
+        <v>0.1794598298608121</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02229264739891218</v>
+        <v>0.02633304907720108</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>51</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1751675901.943707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1247586415.719157</v>
+        <v>1593085339.616521</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1110991127640445</v>
+        <v>0.1083118454432454</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04096062581196112</v>
+        <v>0.04602286448071864</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>623793287.5120794</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3544547604.674342</v>
+        <v>3169805349.999439</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1270085665465772</v>
+        <v>0.1226545479481575</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0269142631047987</v>
+        <v>0.01835214432658453</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>63</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1772273852.447395</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1610184832.934722</v>
+        <v>1343145342.464769</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1706084976583897</v>
+        <v>0.1463823189734853</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02424990466498728</v>
+        <v>0.03077384813295618</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>805092437.5239067</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3720378182.594717</v>
+        <v>4229791820.853781</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1032120097134909</v>
+        <v>0.08238817325655602</v>
       </c>
       <c r="G59" t="n">
-        <v>0.05006806529492812</v>
+        <v>0.03754226466441166</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>54</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1860189080.706957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3115019534.483316</v>
+        <v>2401499927.324498</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1690305229914022</v>
+        <v>0.1635540498479542</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02789965305402218</v>
+        <v>0.03054432351990526</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1557509849.631857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2233693772.854979</v>
+        <v>2570767949.603496</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1543001631326635</v>
+        <v>0.1640350399920555</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01999133837571794</v>
+        <v>0.02530133908787598</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>68</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1116846939.139767</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1866639899.629118</v>
+        <v>1818913934.090974</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1570281673697897</v>
+        <v>0.1520772956567383</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03203366337077808</v>
+        <v>0.03973318311954027</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>933319987.8259373</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4591627505.052711</v>
+        <v>4060563536.408217</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07501389894112211</v>
+        <v>0.07967784765599098</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0438913796050258</v>
+        <v>0.03657319365146751</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>56</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2295813788.507596</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5486440442.736738</v>
+        <v>5156480041.520043</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1881763461451525</v>
+        <v>0.159423121880863</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02326597437128631</v>
+        <v>0.03449551345282018</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>62</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2743220361.750925</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3764589645.147706</v>
+        <v>4507897119.737803</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1522287462577407</v>
+        <v>0.1563023301586582</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02980406382834995</v>
+        <v>0.01983757306619099</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>71</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1882294855.161102</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5738256802.872766</v>
+        <v>3649488353.586218</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1421234572240845</v>
+        <v>0.1511344396559411</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04234507618607167</v>
+        <v>0.03193012576336381</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>58</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2869128468.116635</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3287645303.15545</v>
+        <v>2239393047.142732</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08711478269118894</v>
+        <v>0.07559379414639346</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03377105333450602</v>
+        <v>0.03195488692875144</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>65</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1643822645.475323</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5523738549.040108</v>
+        <v>4996526995.770821</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1074113169645733</v>
+        <v>0.124475377434147</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04353359900911773</v>
+        <v>0.04913457986895728</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2761869362.620263</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2084687907.413281</v>
+        <v>2017231106.777585</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1785084961880313</v>
+        <v>0.1172063744909134</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04420158288041719</v>
+        <v>0.04756826898389272</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1042343969.619091</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2313181463.22634</v>
+        <v>3716303949.609573</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08571770250996562</v>
+        <v>0.09262485148285272</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04184226719977011</v>
+        <v>0.04380314833995191</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>57</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1156590663.94857</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4024601419.545534</v>
+        <v>3772591685.861439</v>
       </c>
       <c r="F71" t="n">
-        <v>0.175725041529731</v>
+        <v>0.1178927562718485</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03339733321553216</v>
+        <v>0.03073581521053489</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>72</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2012300742.612794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1416090223.716603</v>
+        <v>1775952176.704937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08813597894899475</v>
+        <v>0.07373739285334148</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0449859671314052</v>
+        <v>0.04150743902666131</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>708045152.3243541</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3507734893.028728</v>
+        <v>2672081104.888794</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09487140106552404</v>
+        <v>0.08773309585378389</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03760027616948172</v>
+        <v>0.0438530466934755</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>76</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1753867395.983215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2878204979.621474</v>
+        <v>3854390126.872736</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1430726013187018</v>
+        <v>0.1400943507940969</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02493944017328928</v>
+        <v>0.02176524221027886</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>67</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1439102565.739288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1997972163.349442</v>
+        <v>1620792797.983967</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1347760289602877</v>
+        <v>0.1095103609671657</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02870803917855829</v>
+        <v>0.03449401206103626</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>998986045.9998882</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4598716679.292778</v>
+        <v>4150986045.637733</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09361164147862755</v>
+        <v>0.1016651068975742</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02121821855908632</v>
+        <v>0.02268974758869868</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>46</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2299358349.4634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2146031310.650546</v>
+        <v>2201731350.460578</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1528795124082435</v>
+        <v>0.1249342043138959</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02680683241064016</v>
+        <v>0.02482875165391239</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1073015738.422697</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4022808371.078068</v>
+        <v>2904412575.270768</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1306230503232914</v>
+        <v>0.1241799138662483</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04725071378123082</v>
+        <v>0.04307904354808439</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>69</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2011404149.613125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1669426944.072363</v>
+        <v>1491050960.703854</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1491744411127701</v>
+        <v>0.1698634085665715</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03347735417579324</v>
+        <v>0.03511387649249546</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>834713535.8651146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3798061157.406636</v>
+        <v>4557641088.262808</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08456684066526557</v>
+        <v>0.06840660218380065</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0310398673389088</v>
+        <v>0.02645407173989104</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>41</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1899030568.119289</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3792946641.671524</v>
+        <v>5186437432.881974</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1271756961310229</v>
+        <v>0.1122413499740077</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02868282377841843</v>
+        <v>0.02549370570086772</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>44</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1896473276.354066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3439437264.544423</v>
+        <v>5631254952.02524</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1857002156780134</v>
+        <v>0.2002892458533183</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01931146753269248</v>
+        <v>0.02570763139357009</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>70</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1719718703.263181</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1939347493.260781</v>
+        <v>1969293789.431238</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1540496197043734</v>
+        <v>0.1093707800079024</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03112494257180444</v>
+        <v>0.04448503235748932</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>969673724.4050651</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2343297350.919943</v>
+        <v>1998030601.435165</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09832246446221247</v>
+        <v>0.09133884453173323</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04205709960529449</v>
+        <v>0.04520377424253184</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1171648630.174519</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3274290890.8905</v>
+        <v>2390515639.102533</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1336722055893046</v>
+        <v>0.1629017770468627</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04886717674094405</v>
+        <v>0.03581431217861683</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>75</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1637145535.876686</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2479237433.056853</v>
+        <v>1796793685.476618</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1043473321220672</v>
+        <v>0.1177580069619102</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0199979968961458</v>
+        <v>0.01908498846965758</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1239618810.785623</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1114408194.354946</v>
+        <v>1181113009.991421</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1784413396562749</v>
+        <v>0.1704750164210141</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03631395672630503</v>
+        <v>0.03010723792117538</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>557204130.807881</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2618540221.922435</v>
+        <v>2870697929.588938</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1532749495976061</v>
+        <v>0.1428754134885618</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02716895140393262</v>
+        <v>0.0282095757817003</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>79</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1309270103.69688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3183453948.237011</v>
+        <v>3086639104.033827</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1231593251445583</v>
+        <v>0.1537594160308856</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03026069911953577</v>
+        <v>0.03012909924490868</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1591726998.75108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1971636187.529732</v>
+        <v>1664519827.870241</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1220444503338887</v>
+        <v>0.1249768273316916</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0513398656110732</v>
+        <v>0.04702228649035891</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>985818158.7833084</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1741435230.073654</v>
+        <v>1557169575.300887</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1652236450583041</v>
+        <v>0.192856894128949</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04759331437573787</v>
+        <v>0.04739086648757717</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>870717621.740198</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2508229379.758352</v>
+        <v>2974839807.384915</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08512754935188668</v>
+        <v>0.07756181569896865</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04693025029012736</v>
+        <v>0.03101152012259629</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>48</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1254114674.438208</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4610850462.920551</v>
+        <v>4433448090.909459</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09170759086273775</v>
+        <v>0.1052522724193552</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04741225601442908</v>
+        <v>0.03798062939235843</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2305425192.572077</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2513289406.90067</v>
+        <v>1707269037.757156</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1306807441497985</v>
+        <v>0.1186350058465004</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02749576532180131</v>
+        <v>0.04194225572500503</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1256644768.580046</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2726587709.32587</v>
+        <v>2478230404.89291</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09824210564320726</v>
+        <v>0.1022588692072372</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05065536033093141</v>
+        <v>0.04741395629249474</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1363293874.259621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2154717880.248739</v>
+        <v>2137338374.445042</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09689732985130217</v>
+        <v>0.1216090547952616</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02905504033925386</v>
+        <v>0.03325606457008752</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1077358910.558353</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4711811403.437203</v>
+        <v>3951170824.167167</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1586209320921509</v>
+        <v>0.1219656764231417</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02020975649050114</v>
+        <v>0.02574733401021078</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2355905815.325261</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2607100027.438409</v>
+        <v>3260319351.475323</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08051845872711838</v>
+        <v>0.07850648694688507</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02573370265349295</v>
+        <v>0.02351120187516641</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>52</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1303549971.748365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2954247968.891046</v>
+        <v>2083339505.742973</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1446493559331373</v>
+        <v>0.1041852423983392</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03310532323269733</v>
+        <v>0.0233341710431484</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1477123967.040758</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3294087777.500742</v>
+        <v>4783525131.807138</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1522409332243833</v>
+        <v>0.1230254185194883</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02539568233341412</v>
+        <v>0.02578140666983892</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>61</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1647043903.055728</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2686410274.299947</v>
+        <v>3066502402.711657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.204873012443821</v>
+        <v>0.1989175238590543</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04279845872356223</v>
+        <v>0.03875799262517611</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>80</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1343205184.729792</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_198.xlsx
+++ b/output/fit_clients/fit_round_198.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2206336508.382469</v>
+        <v>1683104908.939831</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1011878849868792</v>
+        <v>0.07463246614926124</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03056621020696454</v>
+        <v>0.02764903304315814</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2128709230.408621</v>
+        <v>2499750829.042397</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1275199595302546</v>
+        <v>0.1478329254461464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03634077337965227</v>
+        <v>0.04706784006232325</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4828022993.798893</v>
+        <v>5233808192.225647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1607039423229332</v>
+        <v>0.1513309143807895</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02716672987245619</v>
+        <v>0.02419229522377206</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3209922256.472096</v>
+        <v>3960416097.800628</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1101036329666905</v>
+        <v>0.07605418043237068</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04586041672369342</v>
+        <v>0.04828087063262156</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2349970491.36797</v>
+        <v>2207494278.020693</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1382422986435757</v>
+        <v>0.09147101123923845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04155274997856115</v>
+        <v>0.0512732612364892</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2251013249.389983</v>
+        <v>2239287183.639054</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06441817542577988</v>
+        <v>0.08363133623447949</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03382366485027811</v>
+        <v>0.03470947588312419</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3778568657.92527</v>
+        <v>3076831069.79435</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2146459733719664</v>
+        <v>0.1893399670511222</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02925670077326824</v>
+        <v>0.03153622216029684</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2174897577.215472</v>
+        <v>1999512578.684221</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1980728451280218</v>
+        <v>0.193717109103475</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03586686618308038</v>
+        <v>0.02356932753242297</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5258346201.841476</v>
+        <v>5265648105.565578</v>
       </c>
       <c r="F10" t="n">
-        <v>0.184035919224775</v>
+        <v>0.1739605417057703</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05003329365197537</v>
+        <v>0.033688607981852</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2584938719.604274</v>
+        <v>3541356408.079617</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1769740941440345</v>
+        <v>0.1203576358125127</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04017725795085089</v>
+        <v>0.04279398827664284</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2872947109.084814</v>
+        <v>2582547044.452183</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1211963967784351</v>
+        <v>0.1900397941651934</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04710620967833643</v>
+        <v>0.04609532114663362</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3530393895.318355</v>
+        <v>3937723218.777713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07472283730887305</v>
+        <v>0.08692503728442187</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02391518142865891</v>
+        <v>0.02058545095394745</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2631090671.230774</v>
+        <v>3450224922.529306</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1217231926132641</v>
+        <v>0.1172088591215022</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04218430089976331</v>
+        <v>0.04223867414734087</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1805546450.631119</v>
+        <v>1755407656.415749</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07687455137819044</v>
+        <v>0.1013481856878778</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03297265399165279</v>
+        <v>0.03514461767125549</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2441528303.402445</v>
+        <v>1953190268.145224</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07368756747358857</v>
+        <v>0.1095136108852529</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04106433405478355</v>
+        <v>0.03843966358106476</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3361822110.778121</v>
+        <v>3952629984.65377</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1149825613945914</v>
+        <v>0.1155305276581658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03984630303076587</v>
+        <v>0.03226301399085359</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3665978006.814631</v>
+        <v>2756679036.26</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1713149989356622</v>
+        <v>0.1453642124903413</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02790707512553581</v>
+        <v>0.02658967115669045</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>916328227.7587987</v>
+        <v>1243737287.55574</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1882026893807551</v>
+        <v>0.1188888061383975</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02417754650097718</v>
+        <v>0.0212836973273265</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2284212642.21184</v>
+        <v>1695336640.193294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1168346261410411</v>
+        <v>0.1563024438631723</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0301430039784866</v>
+        <v>0.0211118022257613</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2217538174.31908</v>
+        <v>2231441867.230988</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08386855106524224</v>
+        <v>0.09217550931711842</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03617535500757123</v>
+        <v>0.04405057498298205</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3551590526.173587</v>
+        <v>2644168724.061442</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1451164587483173</v>
+        <v>0.1042085850091358</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05028170330392112</v>
+        <v>0.03557903535605911</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1166215972.322392</v>
+        <v>1275716189.383274</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1354004299279374</v>
+        <v>0.1627878594281268</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03424850111245441</v>
+        <v>0.04864000955212151</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2745925374.70986</v>
+        <v>3415239947.299083</v>
       </c>
       <c r="F24" t="n">
-        <v>0.110614354995427</v>
+        <v>0.1377826225815419</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02740030839807848</v>
+        <v>0.02546097523112559</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1000897950.209732</v>
+        <v>1167137688.315334</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09478223997426788</v>
+        <v>0.100065190691346</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02806364886616571</v>
+        <v>0.02599709130091277</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>944402572.7767196</v>
+        <v>1454078433.846175</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09790379108946973</v>
+        <v>0.1116425469109931</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02373969794018579</v>
+        <v>0.03789102371753776</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3519601413.716203</v>
+        <v>3748985359.049222</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1231796561927267</v>
+        <v>0.1531176871677917</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01673374404600648</v>
+        <v>0.01951158893907526</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,16 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3146093550.489707</v>
+        <v>2676430425.924184</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1245230046047513</v>
+        <v>0.1373277837775092</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04428790303137552</v>
+        <v>0.03282014112240301</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4265786435.566975</v>
+        <v>4963906988.173253</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1134618993035301</v>
+        <v>0.1272670667152453</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04503431247961018</v>
+        <v>0.03576503496981201</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1452978807.539177</v>
+        <v>2339052409.770337</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09278720662257496</v>
+        <v>0.09624914159399635</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03358446551534953</v>
+        <v>0.03736619344914146</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1150101293.775962</v>
+        <v>1464664078.214863</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09313607640248626</v>
+        <v>0.08220031019717411</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03355702776695844</v>
+        <v>0.0509596153941959</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1494080679.604456</v>
+        <v>1695567886.932892</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09426039096568883</v>
+        <v>0.1201900670191161</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03095542471579192</v>
+        <v>0.02703775941981167</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3100120418.130033</v>
+        <v>2567578505.783448</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1632120833522511</v>
+        <v>0.1553828875243923</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05865476270266551</v>
+        <v>0.06121092012248307</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1043637938.20261</v>
+        <v>1426872268.15115</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08151968986454286</v>
+        <v>0.09627726657939777</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02125583272349213</v>
+        <v>0.01896297872441902</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>982293554.0509914</v>
+        <v>852411542.0056844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09994904229411168</v>
+        <v>0.09792730172321774</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02886300093247463</v>
+        <v>0.04445089309013121</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2269791041.188032</v>
+        <v>2559283251.164162</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1251002793110144</v>
+        <v>0.137061882767799</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01866328659495887</v>
+        <v>0.02246956246691672</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1997560772.12697</v>
+        <v>2783097319.02005</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08449935222488369</v>
+        <v>0.1039462990410845</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03594241808878104</v>
+        <v>0.03910000548194555</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1893141224.757949</v>
+        <v>1436189830.24376</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08009090642342806</v>
+        <v>0.08087783586365423</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03076347914193913</v>
+        <v>0.0294331457832446</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1722619994.9508</v>
+        <v>1582738201.238315</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1600014941868853</v>
+        <v>0.1744341067379799</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02552795405909015</v>
+        <v>0.023908230163883</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573035703.797168</v>
+        <v>1793461526.997221</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1052902402563948</v>
+        <v>0.1319191935696583</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05408309561893808</v>
+        <v>0.04840507087152459</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2783429489.614662</v>
+        <v>2005378900.393492</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1197204631613588</v>
+        <v>0.1256487289145275</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02917370100357857</v>
+        <v>0.04545194625341242</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3586897626.502723</v>
+        <v>3599569809.441594</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08148458565128962</v>
+        <v>0.08907455941289079</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03935216909174041</v>
+        <v>0.03066022703641503</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1908855895.995907</v>
+        <v>2591085717.099229</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2041457085328474</v>
+        <v>0.1915181386348011</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01996811088920166</v>
+        <v>0.02349588871956332</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1716306842.820464</v>
+        <v>1560715373.490491</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07373838158192697</v>
+        <v>0.06531097662444998</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02844016728764897</v>
+        <v>0.02279005120822282</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2129228802.930055</v>
+        <v>1588348773.436414</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1931865587043328</v>
+        <v>0.151080200348629</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05620677874022193</v>
+        <v>0.03997318462069142</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5480034752.798732</v>
+        <v>5524525855.599584</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1582311753951361</v>
+        <v>0.1500701136197445</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04576066368491192</v>
+        <v>0.04429056284938758</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3526801937.159066</v>
+        <v>5072202889.749157</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1892327354711179</v>
+        <v>0.1441136265234388</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05007758721650043</v>
+        <v>0.0438372467085053</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3163855990.702484</v>
+        <v>4246168662.388918</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08336695392847136</v>
+        <v>0.1024284850196153</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02930228672714934</v>
+        <v>0.03889820549298764</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1226222761.8369</v>
+        <v>1223207430.029992</v>
       </c>
       <c r="F49" t="n">
-        <v>0.125570602933383</v>
+        <v>0.1513609932245137</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03533576272608282</v>
+        <v>0.04424483433526152</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2644979208.273215</v>
+        <v>3013061431.039891</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1501215639948303</v>
+        <v>0.1674379463287847</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0517810740724805</v>
+        <v>0.03918943371739256</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1188670368.809094</v>
+        <v>1096896247.42193</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1667518444436842</v>
+        <v>0.1682761753800859</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0497130305209606</v>
+        <v>0.04089314710781423</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3523783877.917822</v>
+        <v>4069009666.684758</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09980634277910362</v>
+        <v>0.09986863423296549</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04352387030947574</v>
+        <v>0.04052098115043758</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3064440993.64723</v>
+        <v>3575179894.520681</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1880133275406756</v>
+        <v>0.1285941593064007</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02747654601575832</v>
+        <v>0.02461223289416144</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3098614410.500063</v>
+        <v>3682376268.198755</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1531899792964863</v>
+        <v>0.1285474934513352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04360269752663935</v>
+        <v>0.03649314806791284</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3578440647.570484</v>
+        <v>4072952813.673357</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1794598298608121</v>
+        <v>0.222977531969877</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02633304907720108</v>
+        <v>0.02532871200335397</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1593085339.616521</v>
+        <v>1490646707.210746</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1083118454432454</v>
+        <v>0.1613343124140247</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04602286448071864</v>
+        <v>0.05283817371936426</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3169805349.999439</v>
+        <v>2923489326.938509</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1226545479481575</v>
+        <v>0.1662344250452678</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01835214432658453</v>
+        <v>0.0199074664570018</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1343145342.464769</v>
+        <v>1666588477.238944</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1463823189734853</v>
+        <v>0.1396611190169343</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03077384813295618</v>
+        <v>0.03700669023940747</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4229791820.853781</v>
+        <v>5053795373.51065</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08238817325655602</v>
+        <v>0.09343567021304522</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03754226466441166</v>
+        <v>0.0359875661635892</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2401499927.324498</v>
+        <v>3630078593.278111</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1635540498479542</v>
+        <v>0.1643176941016992</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03054432351990526</v>
+        <v>0.02775576783164197</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2570767949.603496</v>
+        <v>2981137870.74885</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1640350399920555</v>
+        <v>0.1657918018994263</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02530133908787598</v>
+        <v>0.0314949085445536</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1818913934.090974</v>
+        <v>1335711579.21963</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1520772956567383</v>
+        <v>0.1825187006913294</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03973318311954027</v>
+        <v>0.04481138748207238</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4060563536.408217</v>
+        <v>5419855187.369118</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07967784765599098</v>
+        <v>0.08274562014427482</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03657319365146751</v>
+        <v>0.04618330843743901</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5156480041.520043</v>
+        <v>5103410158.052294</v>
       </c>
       <c r="F64" t="n">
-        <v>0.159423121880863</v>
+        <v>0.1808684558641458</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03449551345282018</v>
+        <v>0.02558942145757262</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4507897119.737803</v>
+        <v>5456676523.718648</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1563023301586582</v>
+        <v>0.1186084321753787</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01983757306619099</v>
+        <v>0.02915597385291856</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3649488353.586218</v>
+        <v>5361837076.283486</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1511344396559411</v>
+        <v>0.1063019286643244</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03193012576336381</v>
+        <v>0.03632633871023271</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2239393047.142732</v>
+        <v>3428520137.951326</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07559379414639346</v>
+        <v>0.09279562712754506</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03195488692875144</v>
+        <v>0.04566258368702646</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4996526995.770821</v>
+        <v>5132838232.638601</v>
       </c>
       <c r="F68" t="n">
-        <v>0.124475377434147</v>
+        <v>0.1539055418121736</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04913457986895728</v>
+        <v>0.03467970896400303</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2017231106.777585</v>
+        <v>2398134603.42927</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1172063744909134</v>
+        <v>0.1766088069878611</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04756826898389272</v>
+        <v>0.04807852387304094</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3716303949.609573</v>
+        <v>2934457889.465236</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09262485148285272</v>
+        <v>0.08199269633490956</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04380314833995191</v>
+        <v>0.04759396748226256</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3772591685.861439</v>
+        <v>4012939092.639298</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1178927562718485</v>
+        <v>0.1282609067800141</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03073581521053489</v>
+        <v>0.03105962942385268</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1775952176.704937</v>
+        <v>2090509172.39377</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07373739285334148</v>
+        <v>0.08459965047141074</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04150743902666131</v>
+        <v>0.05101145976559699</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2672081104.888794</v>
+        <v>3321876812.73247</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08773309585378389</v>
+        <v>0.07111269771888808</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0438530466934755</v>
+        <v>0.03778395527837825</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3854390126.872736</v>
+        <v>3262705795.898403</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1400943507940969</v>
+        <v>0.1500239595014163</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02176524221027886</v>
+        <v>0.03190707060688636</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1620792797.983967</v>
+        <v>2245430988.511171</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1095103609671657</v>
+        <v>0.1606698801804506</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03449401206103626</v>
+        <v>0.03289751628974491</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4150986045.637733</v>
+        <v>4113038125.57661</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1016651068975742</v>
+        <v>0.1172859266559239</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02268974758869868</v>
+        <v>0.03383565131571563</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2201731350.460578</v>
+        <v>1995338101.808825</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1249342043138959</v>
+        <v>0.1449874941406037</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02482875165391239</v>
+        <v>0.02868388826976822</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2904412575.270768</v>
+        <v>3711278231.155534</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1241799138662483</v>
+        <v>0.1010943453525714</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04307904354808439</v>
+        <v>0.05230985550781882</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1491050960.703854</v>
+        <v>1271693391.701333</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1698634085665715</v>
+        <v>0.1652533498589373</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03511387649249546</v>
+        <v>0.03464878658728043</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4557641088.262808</v>
+        <v>5207245980.253351</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06840660218380065</v>
+        <v>0.1097540490886218</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02645407173989104</v>
+        <v>0.03301105922302375</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5186437432.881974</v>
+        <v>3280386195.75298</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1122413499740077</v>
+        <v>0.1248443257902449</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02549370570086772</v>
+        <v>0.02210751110213995</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5631254952.02524</v>
+        <v>4570891183.481395</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2002892458533183</v>
+        <v>0.1919877844154504</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02570763139357009</v>
+        <v>0.02705071797221423</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1969293789.431238</v>
+        <v>2242000278.932085</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1093707800079024</v>
+        <v>0.1198763677067367</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04448503235748932</v>
+        <v>0.0356586287879251</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1998030601.435165</v>
+        <v>1815316682.96863</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09133884453173323</v>
+        <v>0.1050022696016504</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04520377424253184</v>
+        <v>0.04298292398980799</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2390515639.102533</v>
+        <v>3112590203.369704</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1629017770468627</v>
+        <v>0.1668167547598121</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03581431217861683</v>
+        <v>0.04743276671654072</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1796793685.476618</v>
+        <v>2216476983.966978</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1177580069619102</v>
+        <v>0.1704424919759212</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01908498846965758</v>
+        <v>0.02503609329981811</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1181113009.991421</v>
+        <v>1351124127.74455</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1704750164210141</v>
+        <v>0.14747031119612</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03010723792117538</v>
+        <v>0.03197728215305284</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2870697929.588938</v>
+        <v>2500857114.607336</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1428754134885618</v>
+        <v>0.1129886838542015</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0282095757817003</v>
+        <v>0.039508580705253</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3086639104.033827</v>
+        <v>2675817878.630748</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1537594160308856</v>
+        <v>0.1006768858743275</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03012909924490868</v>
+        <v>0.04061609199537068</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1664519827.870241</v>
+        <v>1950468392.046697</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1249768273316916</v>
+        <v>0.08587267123616964</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04702228649035891</v>
+        <v>0.04284473759744638</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1557169575.300887</v>
+        <v>2038084969.001098</v>
       </c>
       <c r="F91" t="n">
-        <v>0.192856894128949</v>
+        <v>0.1518663771805592</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04739086648757717</v>
+        <v>0.04350873787333383</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2974839807.384915</v>
+        <v>1961156915.909147</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07756181569896865</v>
+        <v>0.08255119215267964</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03101152012259629</v>
+        <v>0.04309293561492868</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4433448090.909459</v>
+        <v>5042121206.596529</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1052522724193552</v>
+        <v>0.1163641867031383</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03798062939235843</v>
+        <v>0.03649624776736561</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1707269037.757156</v>
+        <v>1722413838.36064</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1186350058465004</v>
+        <v>0.1224015914091604</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04194225572500503</v>
+        <v>0.02777937853505474</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2478230404.89291</v>
+        <v>3035911146.412566</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1022588692072372</v>
+        <v>0.1090099525939771</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04741395629249474</v>
+        <v>0.05262459902460839</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2137338374.445042</v>
+        <v>1650762979.381931</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1216090547952616</v>
+        <v>0.09694348794568247</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03325606457008752</v>
+        <v>0.04502588692065505</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3951170824.167167</v>
+        <v>3810903271.074013</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1219656764231417</v>
+        <v>0.1626708011124235</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02574733401021078</v>
+        <v>0.01908153178139092</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3260319351.475323</v>
+        <v>3442986240.24471</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07850648694688507</v>
+        <v>0.1259191180265612</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02351120187516641</v>
+        <v>0.02941354990008551</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2083339505.742973</v>
+        <v>3012583361.682872</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1041852423983392</v>
+        <v>0.1004804230656119</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0233341710431484</v>
+        <v>0.02910641329146258</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4783525131.807138</v>
+        <v>4251667804.273254</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1230254185194883</v>
+        <v>0.1322204191255711</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02578140666983892</v>
+        <v>0.01895136838399079</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3066502402.711657</v>
+        <v>2263679810.892169</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1989175238590543</v>
+        <v>0.1743661044188152</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03875799262517611</v>
+        <v>0.05375986074581723</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_198.xlsx
+++ b/output/fit_clients/fit_round_198.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1683104908.939831</v>
+        <v>2065028333.728566</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07463246614926124</v>
+        <v>0.0909039892336241</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02764903304315814</v>
+        <v>0.02951369672961315</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2499750829.042397</v>
+        <v>2349916031.800804</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1478329254461464</v>
+        <v>0.1535062534507471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04706784006232325</v>
+        <v>0.03334259199412831</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5233808192.225647</v>
+        <v>3488678817.272208</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1513309143807895</v>
+        <v>0.1330253744348119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02419229522377206</v>
+        <v>0.03043448784150762</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>109</v>
+      </c>
+      <c r="J4" t="n">
+        <v>197</v>
+      </c>
+      <c r="K4" t="n">
+        <v>82.6861968139546</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3960416097.800628</v>
+        <v>3740748561.52787</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07605418043237068</v>
+        <v>0.06954784263533725</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04828087063262156</v>
+        <v>0.03796379844474639</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>82</v>
+      </c>
+      <c r="J5" t="n">
+        <v>198</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2207494278.020693</v>
+        <v>1972641362.412696</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09147101123923845</v>
+        <v>0.1140549724298406</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0512732612364892</v>
+        <v>0.05365061185056631</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2239287183.639054</v>
+        <v>1933220361.347766</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08363133623447949</v>
+        <v>0.1008496180129713</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03470947588312419</v>
+        <v>0.0431689838373667</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3076831069.79435</v>
+        <v>2402580490.716655</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1893399670511222</v>
+        <v>0.1680913618198479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03153622216029684</v>
+        <v>0.03012907217059271</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>56</v>
+      </c>
+      <c r="J8" t="n">
+        <v>196</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1999512578.684221</v>
+        <v>1930102511.168654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.193717109103475</v>
+        <v>0.1768190256247466</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02356932753242297</v>
+        <v>0.02821216184278028</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5265648105.565578</v>
+        <v>4195937571.39759</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1739605417057703</v>
+        <v>0.1486358949577651</v>
       </c>
       <c r="G10" t="n">
-        <v>0.033688607981852</v>
+        <v>0.05112279612886814</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>181</v>
+      </c>
+      <c r="J10" t="n">
+        <v>198</v>
+      </c>
+      <c r="K10" t="n">
+        <v>130.623083976534</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3541356408.079617</v>
+        <v>3583652069.600987</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1203576358125127</v>
+        <v>0.1766508041927007</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04279398827664284</v>
+        <v>0.03102347769776432</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J11" t="n">
+        <v>198</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2582547044.452183</v>
+        <v>2486446098.384702</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1900397941651934</v>
+        <v>0.1477519367505252</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04609532114663362</v>
+        <v>0.03851579683203653</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3937723218.777713</v>
+        <v>4836957889.022067</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08692503728442187</v>
+        <v>0.1019216287636702</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02058545095394745</v>
+        <v>0.01902452665376227</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>99</v>
+      </c>
+      <c r="J13" t="n">
+        <v>198</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3450224922.529306</v>
+        <v>2530289251.027328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1172088591215022</v>
+        <v>0.1572682412603712</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04223867414734087</v>
+        <v>0.02813711088022829</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>38</v>
+      </c>
+      <c r="J14" t="n">
+        <v>197</v>
+      </c>
+      <c r="K14" t="n">
+        <v>44.03770403280927</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1755407656.415749</v>
+        <v>1386698089.040932</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1013481856878778</v>
+        <v>0.09478683433062814</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03514461767125549</v>
+        <v>0.04311689341101153</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1953190268.145224</v>
+        <v>2382887364.934122</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1095136108852529</v>
+        <v>0.07420548279386435</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03843966358106476</v>
+        <v>0.03485470334946014</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3952629984.65377</v>
+        <v>4663039649.31034</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1155305276581658</v>
+        <v>0.1753782795286334</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03226301399085359</v>
+        <v>0.04361404039527877</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>95</v>
+      </c>
+      <c r="J17" t="n">
+        <v>197</v>
+      </c>
+      <c r="K17" t="n">
+        <v>111.7734688831238</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2756679036.26</v>
+        <v>2455521966.692904</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1453642124903413</v>
+        <v>0.1423075956406131</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02658967115669045</v>
+        <v>0.02175085484585811</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="n">
+        <v>196</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1243737287.55574</v>
+        <v>1311917393.322231</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1188888061383975</v>
+        <v>0.1240909144373436</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0212836973273265</v>
+        <v>0.01948600754983927</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1695336640.193294</v>
+        <v>2592108947.753108</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1563024438631723</v>
+        <v>0.1320325698094489</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0211118022257613</v>
+        <v>0.02551341097691134</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2231441867.230988</v>
+        <v>2154365103.448254</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09217550931711842</v>
+        <v>0.09079434561356332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04405057498298205</v>
+        <v>0.04618047549009074</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2644168724.061442</v>
+        <v>3795987140.136706</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1042085850091358</v>
+        <v>0.1146857349380483</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03557903535605911</v>
+        <v>0.05013721997897871</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="n">
+        <v>198</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1275716189.383274</v>
+        <v>1201973749.425199</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1627878594281268</v>
+        <v>0.1410050653357789</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04864000955212151</v>
+        <v>0.03526909071668659</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3415239947.299083</v>
+        <v>3219219928.873168</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1377826225815419</v>
+        <v>0.1494550938282674</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02546097523112559</v>
+        <v>0.033251610265575</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>61</v>
+      </c>
+      <c r="J24" t="n">
+        <v>197</v>
+      </c>
+      <c r="K24" t="n">
+        <v>65.1516132960199</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1167137688.315334</v>
+        <v>1470151197.789466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100065190691346</v>
+        <v>0.07703733007523833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02599709130091277</v>
+        <v>0.02192590221780356</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1454078433.846175</v>
+        <v>1404305594.765038</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1116425469109931</v>
+        <v>0.09468728996867477</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03789102371753776</v>
+        <v>0.02682356378551636</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3748985359.049222</v>
+        <v>3112195938.947054</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1531176871677917</v>
+        <v>0.1452939493892736</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01951158893907526</v>
+        <v>0.02658832448162231</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>79</v>
+      </c>
+      <c r="J27" t="n">
+        <v>196</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1421,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2676430425.924184</v>
+        <v>3436787199.375735</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1373277837775092</v>
+        <v>0.1050910456258434</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03282014112240301</v>
+        <v>0.04323290876365057</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>41</v>
+      </c>
+      <c r="J28" t="n">
+        <v>197</v>
+      </c>
+      <c r="K28" t="n">
+        <v>81.27442001517902</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4963906988.173253</v>
+        <v>5815566093.082325</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1272670667152453</v>
+        <v>0.1374106199729606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03576503496981201</v>
+        <v>0.03359504666488201</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>187</v>
+      </c>
+      <c r="J29" t="n">
+        <v>198</v>
+      </c>
+      <c r="K29" t="n">
+        <v>136.5121633580561</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2339052409.770337</v>
+        <v>1934515793.58779</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09624914159399635</v>
+        <v>0.1320516392196154</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03736619344914146</v>
+        <v>0.02952085209633824</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1464664078.214863</v>
+        <v>1074834833.947141</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08220031019717411</v>
+        <v>0.08748972644757705</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0509596153941959</v>
+        <v>0.03895733445305371</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1695567886.932892</v>
+        <v>1191448277.867814</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1201900670191161</v>
+        <v>0.07567059532724027</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02703775941981167</v>
+        <v>0.0259701808383496</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2567578505.783448</v>
+        <v>2556008022.773659</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1553828875243923</v>
+        <v>0.1743359165211499</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06121092012248307</v>
+        <v>0.05664439707638236</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1426872268.15115</v>
+        <v>1494532078.376095</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09627726657939777</v>
+        <v>0.08491275079269908</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01896297872441902</v>
+        <v>0.02095825686995235</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>852411542.0056844</v>
+        <v>1110064762.876547</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09792730172321774</v>
+        <v>0.07204844482385127</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04445089309013121</v>
+        <v>0.03066855018680326</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2559283251.164162</v>
+        <v>2739729155.98621</v>
       </c>
       <c r="F36" t="n">
-        <v>0.137061882767799</v>
+        <v>0.1752278976343012</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02246956246691672</v>
+        <v>0.0220994240817168</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2783097319.02005</v>
+        <v>1785354217.121953</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1039462990410845</v>
+        <v>0.099556991907106</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03910000548194555</v>
+        <v>0.03773326394860758</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1436189830.24376</v>
+        <v>1530976019.620496</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08087783586365423</v>
+        <v>0.07397039180706456</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0294331457832446</v>
+        <v>0.03344946238109842</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1582738201.238315</v>
+        <v>1664449660.054675</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1744341067379799</v>
+        <v>0.1834815483553287</v>
       </c>
       <c r="G39" t="n">
-        <v>0.023908230163883</v>
+        <v>0.03275081077003459</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1793461526.997221</v>
+        <v>1620720191.581372</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1319191935696583</v>
+        <v>0.1435399636156511</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04840507087152459</v>
+        <v>0.0399055182608312</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2005378900.393492</v>
+        <v>2442944369.445271</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1256487289145275</v>
+        <v>0.1329991139768214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04545194625341242</v>
+        <v>0.03932917061487653</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3599569809.441594</v>
+        <v>3547075327.688251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08907455941289079</v>
+        <v>0.09246565229861445</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03066022703641503</v>
+        <v>0.04087682832768459</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>78</v>
+      </c>
+      <c r="J42" t="n">
+        <v>197</v>
+      </c>
+      <c r="K42" t="n">
+        <v>88.67877834981833</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2591085717.099229</v>
+        <v>2237290090.470782</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1915181386348011</v>
+        <v>0.1571523568984638</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02349588871956332</v>
+        <v>0.02476062318641881</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1560715373.490491</v>
+        <v>2029028268.228177</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06531097662444998</v>
+        <v>0.0706858269571804</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02279005120822282</v>
+        <v>0.02770737740507052</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1588348773.436414</v>
+        <v>2427850160.020576</v>
       </c>
       <c r="F45" t="n">
-        <v>0.151080200348629</v>
+        <v>0.1601204732005792</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03997318462069142</v>
+        <v>0.03804068699216953</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5524525855.599584</v>
+        <v>5684484057.04555</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1500701136197445</v>
+        <v>0.1417661713303147</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04429056284938758</v>
+        <v>0.05091145565352673</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>113</v>
+      </c>
+      <c r="J46" t="n">
+        <v>198</v>
+      </c>
+      <c r="K46" t="n">
+        <v>122.6534682803866</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5072202889.749157</v>
+        <v>5159130230.709382</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1441136265234388</v>
+        <v>0.1580297880869781</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0438372467085053</v>
+        <v>0.05333293951270535</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>88</v>
+      </c>
+      <c r="J47" t="n">
+        <v>198</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4246168662.388918</v>
+        <v>4225925925.126136</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1024284850196153</v>
+        <v>0.07170260716150521</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03889820549298764</v>
+        <v>0.03609030750702982</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>95</v>
+      </c>
+      <c r="J48" t="n">
+        <v>198</v>
+      </c>
+      <c r="K48" t="n">
+        <v>124.1636149663044</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1223207430.029992</v>
+        <v>1435096800.71011</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1513609932245137</v>
+        <v>0.1274344407913468</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04424483433526152</v>
+        <v>0.03064376044717396</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2201,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3013061431.039891</v>
+        <v>3331984780.685263</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1674379463287847</v>
+        <v>0.1619312648424386</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03918943371739256</v>
+        <v>0.05196828864963989</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>62</v>
+      </c>
+      <c r="J50" t="n">
+        <v>193</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1096896247.42193</v>
+        <v>1462019141.185492</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1682761753800859</v>
+        <v>0.1959759968308317</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04089314710781423</v>
+        <v>0.03855993821771023</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4069009666.684758</v>
+        <v>4840993058.977208</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09986863423296549</v>
+        <v>0.09781188416894068</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04052098115043758</v>
+        <v>0.05410841517848401</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>137</v>
+      </c>
+      <c r="J52" t="n">
+        <v>197</v>
+      </c>
+      <c r="K52" t="n">
+        <v>120.1412545458556</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3575179894.520681</v>
+        <v>3580264789.078822</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1285941593064007</v>
+        <v>0.1994817640787445</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02461223289416144</v>
+        <v>0.02991969216917981</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>185</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3682376268.198755</v>
+        <v>3389798870.326</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1285474934513352</v>
+        <v>0.142341685242093</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03649314806791284</v>
+        <v>0.04224438936850658</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>101</v>
+      </c>
+      <c r="J54" t="n">
+        <v>196</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4072952813.673357</v>
+        <v>4845247482.516903</v>
       </c>
       <c r="F55" t="n">
-        <v>0.222977531969877</v>
+        <v>0.193661513048151</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02532871200335397</v>
+        <v>0.02216640856064903</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>88</v>
+      </c>
+      <c r="J55" t="n">
+        <v>198</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1490646707.210746</v>
+        <v>1869156970.545204</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1613343124140247</v>
+        <v>0.1537704083735677</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05283817371936426</v>
+        <v>0.04564062523118961</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2923489326.938509</v>
+        <v>2849449428.874424</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1662344250452678</v>
+        <v>0.176613581479982</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0199074664570018</v>
+        <v>0.02409438965886195</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>79</v>
+      </c>
+      <c r="J57" t="n">
+        <v>196</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1666588477.238944</v>
+        <v>1814791692.434239</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1396611190169343</v>
+        <v>0.1684010286183158</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03700669023940747</v>
+        <v>0.0321464525473749</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5053795373.51065</v>
+        <v>4739355514.606816</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09343567021304522</v>
+        <v>0.09687829325037355</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0359875661635892</v>
+        <v>0.04178676491035042</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>95</v>
+      </c>
+      <c r="J59" t="n">
+        <v>198</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3630078593.278111</v>
+        <v>2642594364.12082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1643176941016992</v>
+        <v>0.1389890571623014</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02775576783164197</v>
+        <v>0.02247910922885231</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>28</v>
+      </c>
+      <c r="J60" t="n">
+        <v>189</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2981137870.74885</v>
+        <v>2528928727.323825</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1657918018994263</v>
+        <v>0.1468481217070688</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0314949085445536</v>
+        <v>0.02605912651524553</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1335711579.21963</v>
+        <v>2087840300.985606</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1825187006913294</v>
+        <v>0.1482517108984067</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04481138748207238</v>
+        <v>0.04871960051237845</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5419855187.369118</v>
+        <v>3452335239.705749</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08274562014427482</v>
+        <v>0.08468198081833234</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04618330843743901</v>
+        <v>0.03514031114978647</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>97</v>
+      </c>
+      <c r="J63" t="n">
+        <v>197</v>
+      </c>
+      <c r="K63" t="n">
+        <v>77.33638843235914</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5103410158.052294</v>
+        <v>4456515522.178032</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1808684558641458</v>
+        <v>0.1668506662605135</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02558942145757262</v>
+        <v>0.03199236895489002</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>97</v>
+      </c>
+      <c r="J64" t="n">
+        <v>198</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5456676523.718648</v>
+        <v>5555450065.138475</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1186084321753787</v>
+        <v>0.1109211362784998</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02915597385291856</v>
+        <v>0.02379748487748729</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>160</v>
+      </c>
+      <c r="J65" t="n">
+        <v>198</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5361837076.283486</v>
+        <v>5301180437.455602</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1063019286643244</v>
+        <v>0.1276554255521229</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03632633871023271</v>
+        <v>0.04160263541888165</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>97</v>
+      </c>
+      <c r="J66" t="n">
+        <v>198</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3428520137.951326</v>
+        <v>2698257514.135761</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09279562712754506</v>
+        <v>0.06443537155180781</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04566258368702646</v>
+        <v>0.03666156205262589</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5132838232.638601</v>
+        <v>4820124593.971309</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1539055418121736</v>
+        <v>0.134125978063251</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03467970896400303</v>
+        <v>0.03269367874804666</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" t="n">
+        <v>197</v>
+      </c>
+      <c r="K68" t="n">
+        <v>116.6621924060522</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2398134603.42927</v>
+        <v>1691719008.186169</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1766088069878611</v>
+        <v>0.1744891667874518</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04807852387304094</v>
+        <v>0.04428143727069415</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2934457889.465236</v>
+        <v>3694709096.737877</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08199269633490956</v>
+        <v>0.09534805503074496</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04759396748226256</v>
+        <v>0.03722565058872047</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>29</v>
+      </c>
+      <c r="J70" t="n">
+        <v>198</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4012939092.639298</v>
+        <v>4717355286.036859</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1282609067800141</v>
+        <v>0.1420512697190766</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03105962942385268</v>
+        <v>0.02972489382552021</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>152</v>
+      </c>
+      <c r="J71" t="n">
+        <v>198</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2090509172.39377</v>
+        <v>1722771143.627973</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08459965047141074</v>
+        <v>0.06839178008283193</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05101145976559699</v>
+        <v>0.04290436635735211</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3321876812.73247</v>
+        <v>3044323763.196781</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07111269771888808</v>
+        <v>0.1101836724675099</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03778395527837825</v>
+        <v>0.04555269972909986</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3262705795.898403</v>
+        <v>3957607867.64717</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1500239595014163</v>
+        <v>0.1613119031213333</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03190707060688636</v>
+        <v>0.02347520729513695</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>57</v>
+      </c>
+      <c r="J74" t="n">
+        <v>197</v>
+      </c>
+      <c r="K74" t="n">
+        <v>111.2144066647601</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2245430988.511171</v>
+        <v>2347127943.182871</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1606698801804506</v>
+        <v>0.1222491043521298</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03289751628974491</v>
+        <v>0.03786928710848421</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4113038125.57661</v>
+        <v>3738704254.940158</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1172859266559239</v>
+        <v>0.09463015340816219</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03383565131571563</v>
+        <v>0.0317154571275463</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>90</v>
+      </c>
+      <c r="J76" t="n">
+        <v>198</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1995338101.808825</v>
+        <v>1990241148.440926</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1449874941406037</v>
+        <v>0.1322123045365828</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02868388826976822</v>
+        <v>0.02520528843751254</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3711278231.155534</v>
+        <v>3298912393.282591</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1010943453525714</v>
+        <v>0.1151183716406715</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05230985550781882</v>
+        <v>0.05674146656747225</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99</v>
+      </c>
+      <c r="J78" t="n">
+        <v>195</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1271693391.701333</v>
+        <v>1802161441.009294</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1652533498589373</v>
+        <v>0.1381181425369119</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03464878658728043</v>
+        <v>0.03744851626815012</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5207245980.253351</v>
+        <v>5623592835.63558</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1097540490886218</v>
+        <v>0.08099406724845244</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03301105922302375</v>
+        <v>0.03070259953402491</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>97</v>
+      </c>
+      <c r="J80" t="n">
+        <v>197</v>
+      </c>
+      <c r="K80" t="n">
+        <v>88.42084017343946</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3280386195.75298</v>
+        <v>4187722029.125706</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1248443257902449</v>
+        <v>0.08687769531639733</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02210751110213995</v>
+        <v>0.03069379008436231</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>91</v>
+      </c>
+      <c r="J81" t="n">
+        <v>197</v>
+      </c>
+      <c r="K81" t="n">
+        <v>106.0310587675862</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4570891183.481395</v>
+        <v>4384810283.633738</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1919877844154504</v>
+        <v>0.2151284701852008</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02705071797221423</v>
+        <v>0.02036676030780138</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>146</v>
+      </c>
+      <c r="J82" t="n">
+        <v>198</v>
+      </c>
+      <c r="K82" t="n">
+        <v>127.5112039100931</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2242000278.932085</v>
+        <v>1591823005.932977</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1198763677067367</v>
+        <v>0.096483436512351</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0356586287879251</v>
+        <v>0.0325897971759819</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1815316682.96863</v>
+        <v>2374917021.866035</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1050022696016504</v>
+        <v>0.1108709925728137</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04298292398980799</v>
+        <v>0.03338592592333545</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3112590203.369704</v>
+        <v>3328787340.076663</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1668167547598121</v>
+        <v>0.1432880684359046</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04743276671654072</v>
+        <v>0.04305415204639566</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28</v>
+      </c>
+      <c r="J85" t="n">
+        <v>197</v>
+      </c>
+      <c r="K85" t="n">
+        <v>84.57016408868991</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2216476983.966978</v>
+        <v>2660513081.74527</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1704424919759212</v>
+        <v>0.1555289503193097</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02503609329981811</v>
+        <v>0.02666009667963946</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1351124127.74455</v>
+        <v>1441365826.323164</v>
       </c>
       <c r="F87" t="n">
-        <v>0.14747031119612</v>
+        <v>0.1388051141768545</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03197728215305284</v>
+        <v>0.04393121192168705</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2500857114.607336</v>
+        <v>2346824314.937217</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1129886838542015</v>
+        <v>0.1234983259576833</v>
       </c>
       <c r="G88" t="n">
-        <v>0.039508580705253</v>
+        <v>0.02471977593878267</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>192</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2675817878.630748</v>
+        <v>2787941442.007144</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1006768858743275</v>
+        <v>0.1028492543618285</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04061609199537068</v>
+        <v>0.03441857842664549</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1950468392.046697</v>
+        <v>1581420923.162337</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08587267123616964</v>
+        <v>0.1316781074741861</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04284473759744638</v>
+        <v>0.05172104873481318</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2038084969.001098</v>
+        <v>1374978243.882185</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1518663771805592</v>
+        <v>0.1834498762764231</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04350873787333383</v>
+        <v>0.0394964361449785</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1961156915.909147</v>
+        <v>2292779332.556976</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08255119215267964</v>
+        <v>0.07287160801316073</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04309293561492868</v>
+        <v>0.03048833621477139</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5042121206.596529</v>
+        <v>4412737178.384755</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1163641867031383</v>
+        <v>0.09429798180645738</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03649624776736561</v>
+        <v>0.0361579745759287</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>89</v>
+      </c>
+      <c r="J93" t="n">
+        <v>198</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1722413838.36064</v>
+        <v>1773944696.377096</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1224015914091604</v>
+        <v>0.115912667389707</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02777937853505474</v>
+        <v>0.02985848680197773</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3035911146.412566</v>
+        <v>2974714114.472087</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1090099525939771</v>
+        <v>0.1320110681045597</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05262459902460839</v>
+        <v>0.0422545434866029</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1650762979.381931</v>
+        <v>2356929439.178154</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09694348794568247</v>
+        <v>0.09187287957457789</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04502588692065505</v>
+        <v>0.0335670813219525</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3810903271.074013</v>
+        <v>5195432227.249892</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1626708011124235</v>
+        <v>0.1239892136773263</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01908153178139092</v>
+        <v>0.02442604781177236</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>96</v>
+      </c>
+      <c r="J97" t="n">
+        <v>197</v>
+      </c>
+      <c r="K97" t="n">
+        <v>118.1580087946532</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3442986240.24471</v>
+        <v>2706498218.06459</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1259191180265612</v>
+        <v>0.07822964373510229</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02941354990008551</v>
+        <v>0.03247544901374892</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>49</v>
+      </c>
+      <c r="J98" t="n">
+        <v>197</v>
+      </c>
+      <c r="K98" t="n">
+        <v>44.87900724268563</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3012583361.682872</v>
+        <v>2674918352.696943</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1004804230656119</v>
+        <v>0.1065552510334831</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02910641329146258</v>
+        <v>0.02569414197153859</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4251667804.273254</v>
+        <v>3717223326.811185</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1322204191255711</v>
+        <v>0.1650976070134666</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01895136838399079</v>
+        <v>0.02468859258681186</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>81</v>
+      </c>
+      <c r="J100" t="n">
+        <v>198</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2263679810.892169</v>
+        <v>2656458764.913664</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1743661044188152</v>
+        <v>0.1737718554044261</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05375986074581723</v>
+        <v>0.04662661096088107</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
